--- a/Doc/SubBuoyCostCalculation.xlsx
+++ b/Doc/SubBuoyCostCalculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\NicE-Buoy\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0617E299-7DC1-4A5A-BE36-A78110E6F3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816F7C04-9D18-4778-8739-F5FD71FC825E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26565" yWindow="1725" windowWidth="23160" windowHeight="11955" xr2:uid="{3C8DFD5D-6DE3-4D07-804B-BA76EA769BCD}"/>
+    <workbookView xWindow="-26925" yWindow="3735" windowWidth="23160" windowHeight="11955" xr2:uid="{3C8DFD5D-6DE3-4D07-804B-BA76EA769BCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Trusters</t>
   </si>
@@ -93,6 +93,36 @@
   </si>
   <si>
     <t>40A S6</t>
+  </si>
+  <si>
+    <t>Vout(max)</t>
+  </si>
+  <si>
+    <t>Vout</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>Iout</t>
+  </si>
+  <si>
+    <t>Fs</t>
+  </si>
+  <si>
+    <t>Lmin</t>
+  </si>
+  <si>
+    <t>Calculation TPS5430DDAR</t>
+  </si>
+  <si>
+    <t>39uH</t>
+  </si>
+  <si>
+    <t>12uH</t>
   </si>
 </sst>
 </file>
@@ -484,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A61C80-FBC7-428B-9F97-3813181109EC}">
-  <dimension ref="A2:E1048576"/>
+  <dimension ref="A2:P1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,19 +526,44 @@
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -525,8 +580,33 @@
         <f>A4*D4</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>3.6</v>
+      </c>
+      <c r="J4">
+        <v>3.3</v>
+      </c>
+      <c r="K4">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>0.2</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>500000</v>
+      </c>
+      <c r="O4">
+        <f>I4*(K4-J4)/(K4*L4*M4*N4)</f>
+        <v>3.1757142857142851E-5</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -543,8 +623,33 @@
         <f>A5*D5</f>
         <v>146.80000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>19.8</v>
+      </c>
+      <c r="L5">
+        <v>0.2</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>500000</v>
+      </c>
+      <c r="O5">
+        <f>I5*(K5-J5)/(K5*L5*M5*N5)</f>
+        <v>1.2707070707070707E-5</v>
+      </c>
+      <c r="P5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -562,7 +667,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -576,11 +681,11 @@
         <v>16.7</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E21" si="0">A7*D7</f>
+        <f t="shared" ref="E7:E17" si="0">A7*D7</f>
         <v>33.4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -598,7 +703,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -616,18 +721,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E10" s="1">
         <f>SUM(E4:E9)</f>
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -645,7 +750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>

--- a/Doc/SubBuoyCostCalculation.xlsx
+++ b/Doc/SubBuoyCostCalculation.xlsx
@@ -318,10 +318,10 @@
   <dimension ref="A2:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.71"/>
@@ -497,11 +497,11 @@
         <v>21</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="n">
         <f aca="false">A8*D8</f>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>22</v>
@@ -527,11 +527,11 @@
         <v>27</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1" t="n">
         <f aca="false">A9*D9</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>28</v>
@@ -550,7 +550,7 @@
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="1" t="n">
         <f aca="false">SUM(E4:E9)</f>
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>19</v>
@@ -600,11 +600,11 @@
         <v>31</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E16" s="1" t="n">
         <f aca="false">A16*D16</f>
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -618,23 +618,27 @@
         <v>27</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1" t="n">
         <f aca="false">A17*D17</f>
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E18" s="1" t="n">
         <f aca="false">SUM(E15:E17)</f>
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E20" s="1" t="n">
         <f aca="false">E10+E18</f>
-        <v>408</v>
+        <v>348</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <f aca="false">E20*3</f>
+        <v>1044</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Doc/SubBuoyCostCalculation.xlsx
+++ b/Doc/SubBuoyCostCalculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\NicE-Buoy\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B6B182-23DC-49D1-A251-1A54E695F95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7492304-E39B-4F92-B7E5-AB6D8EDBBD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26925" yWindow="3735" windowWidth="23160" windowHeight="11955" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,62 +36,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>NicE Sub Buoy</t>
   </si>
   <si>
-    <t>Calculation TPS5430DDAR</t>
-  </si>
-  <si>
     <t>SUB</t>
   </si>
   <si>
-    <t>Vout(max)</t>
-  </si>
-  <si>
-    <t>Vout</t>
-  </si>
-  <si>
-    <t>Vin</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>Iout</t>
-  </si>
-  <si>
-    <t>Fs</t>
-  </si>
-  <si>
-    <t>Lmin</t>
-  </si>
-  <si>
     <t>Trusters</t>
   </si>
   <si>
     <t>TOOPRE</t>
   </si>
   <si>
-    <t>39uH</t>
-  </si>
-  <si>
     <t>Accu</t>
   </si>
   <si>
-    <t>DXF LIPO 7000Mah</t>
-  </si>
-  <si>
-    <t>12uH</t>
-  </si>
-  <si>
-    <t>Ycable</t>
-  </si>
-  <si>
-    <t>2M XT60 &gt; 1F XT60</t>
-  </si>
-  <si>
     <t>ESC</t>
   </si>
   <si>
@@ -104,18 +65,6 @@
     <t>NicE SubBuoySubV1.0</t>
   </si>
   <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>ugate</t>
-  </si>
-  <si>
     <t>Casing</t>
   </si>
   <si>
@@ -150,6 +99,18 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>S6 DXF LIPO 8500Mah</t>
+  </si>
+  <si>
+    <t>M16 pcb 10p</t>
+  </si>
+  <si>
+    <t>accu</t>
+  </si>
+  <si>
+    <t>LiPo 1S</t>
   </si>
 </sst>
 </file>
@@ -632,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:Q1048576"/>
+  <dimension ref="A2:N1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +617,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -664,10 +625,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>22.5</v>
@@ -682,10 +643,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1">
         <v>73.400000000000006</v>
@@ -697,20 +658,20 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>3.9</v>
+        <v>11.7</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>7.8</v>
+        <f t="shared" ref="E6" si="1">A6*D6</f>
+        <v>11.7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -718,10 +679,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>16.7</v>
@@ -736,10 +697,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1">
         <v>50</v>
@@ -754,10 +715,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
         <v>15</v>
@@ -772,28 +733,28 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1">
         <v>30</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ref="E10" si="1">A10*D10</f>
+        <f t="shared" ref="E10" si="2">A10*D10</f>
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" s="1">
         <f>SUM(E4:E10)</f>
-        <v>328</v>
+        <v>331.9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -801,10 +762,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1">
         <v>15</v>
@@ -819,10 +780,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1">
         <v>35</v>
@@ -832,15 +793,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1">
         <v>15</v>
@@ -850,15 +811,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1">
         <v>20</v>
@@ -868,160 +829,53 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3.8</v>
+      </c>
       <c r="E19" s="1">
-        <f>SUM(E15:E18)</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <f>A19*D19</f>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
+        <f>SUM(E15:E19)</f>
+        <v>88.8</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="E21" s="1">
-        <f>E11+E19</f>
-        <v>413</v>
+        <f>E11+E20</f>
+        <v>420.7</v>
       </c>
       <c r="F21" s="1">
         <f>E21*B21</f>
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J23" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" t="s">
-        <v>4</v>
-      </c>
-      <c r="L23" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" t="s">
-        <v>6</v>
-      </c>
-      <c r="N23" t="s">
-        <v>7</v>
-      </c>
-      <c r="O23" t="s">
-        <v>8</v>
-      </c>
-      <c r="P23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J24">
-        <v>3.6</v>
-      </c>
-      <c r="K24">
-        <v>3.3</v>
-      </c>
-      <c r="L24">
-        <v>28</v>
-      </c>
-      <c r="M24">
-        <v>0.2</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>500000</v>
-      </c>
-      <c r="P24">
-        <f>J24*(L24-K24)/(L24*M24*N24*O24)</f>
-        <v>3.1757142857142851E-5</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J25">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="K25">
-        <v>5</v>
-      </c>
-      <c r="L25">
-        <v>19.8</v>
-      </c>
-      <c r="M25">
-        <v>0.2</v>
-      </c>
-      <c r="N25" s="6">
-        <v>3</v>
-      </c>
-      <c r="O25">
-        <v>500000</v>
-      </c>
-      <c r="P25">
-        <f>J25*(L25-K25)/(L25*M25*N25*O25)</f>
-        <v>1.2707070707070707E-5</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J28" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" t="s">
-        <v>23</v>
-      </c>
-      <c r="L28" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J29">
-        <v>28</v>
-      </c>
-      <c r="K29">
-        <v>18</v>
-      </c>
-      <c r="L29">
-        <v>10</v>
-      </c>
-      <c r="M29">
-        <f>J29*L29/(K29+L29)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J30">
-        <v>19</v>
-      </c>
-      <c r="K30">
-        <v>18</v>
-      </c>
-      <c r="L30">
-        <v>10</v>
-      </c>
-      <c r="M30">
-        <f>J30*L30/(K30+L30)</f>
-        <v>6.7857142857142856</v>
-      </c>
+        <v>1262.0999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N25" s="6"/>
     </row>
     <row r="1048576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1048576" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
